--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8010"/>
+    <workbookView windowWidth="20385" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="iTree任务发布表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -145,13 +145,55 @@
     <t>子任务发布表2</t>
   </si>
   <si>
+    <t>组内讨论，确认本周任务计划</t>
+  </si>
+  <si>
+    <t>综合考虑上一阶段的任务完成效果和现有任务需求，制定本周的总体任务计划及个人任务计划</t>
+  </si>
+  <si>
+    <t>小组计划已提交，个人计划尽快补充</t>
+  </si>
+  <si>
+    <t>模块间联系不大，统一安排交困难</t>
+  </si>
+  <si>
+    <t>放开自由度，自己处理自己的任务部分</t>
+  </si>
+  <si>
     <t>子任务发布表3</t>
   </si>
   <si>
+    <t>学习在Maven项目下整合string和hibernate</t>
+  </si>
+  <si>
+    <t>在不影响项目整体结构的前提下，整合string和hibernate</t>
+  </si>
+  <si>
     <t>子任务发布表4</t>
   </si>
   <si>
+    <t>iTree团队例会，讨论团队发展及知识共享</t>
+  </si>
+  <si>
+    <t>1、没特殊情况，所有第一届成员全部参加；
+2、每个小组将在完成任务中用到的新知识分享给大家；
+3、提前准备好自己的意见和问题</t>
+  </si>
+  <si>
     <t>子任务发布表5</t>
+  </si>
+  <si>
+    <t>第二届成员例会</t>
+  </si>
+  <si>
+    <t>等待下发</t>
+  </si>
+  <si>
+    <t>学习中文分词技术</t>
+  </si>
+  <si>
+    <t>1、在时间允许的情况下执行该任务；
+2、查找适合的开源项目，最好编写model</t>
   </si>
   <si>
     <t>子任务发布表</t>
@@ -164,8 +206,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -201,24 +243,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,14 +265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,9 +286,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,16 +326,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,8 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,15 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,9 +372,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,13 +392,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -360,175 +402,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,54 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -723,11 +717,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +742,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -763,10 +805,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +817,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A64" sqref="$A64:$XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1603,7 +1645,9 @@
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="18">
+        <v>42310</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1617,17 +1661,21 @@
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" ht="53" customHeight="1" spans="1:6">
+    <row r="22" ht="42" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1637,7 +1685,9 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1647,7 +1697,9 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1657,7 +1709,9 @@
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1678,7 +1732,7 @@
     <row r="27" ht="42" customHeight="1"/>
     <row r="28" ht="35" customHeight="1" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1690,7 +1744,9 @@
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18">
+        <v>42311</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1704,7 +1760,9 @@
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -1714,7 +1772,9 @@
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -1765,7 +1825,7 @@
     <row r="36" ht="47" customHeight="1"/>
     <row r="37" ht="32" customHeight="1" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1777,7 +1837,9 @@
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="18">
+        <v>42311</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
@@ -1791,17 +1853,21 @@
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" ht="48" customHeight="1" spans="1:6">
+    <row r="40" ht="61" customHeight="1" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -1852,7 +1918,7 @@
     <row r="46" ht="27" customHeight="1"/>
     <row r="47" ht="27" customHeight="1" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1864,7 +1930,9 @@
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="18">
+        <v>42312</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1946,9 @@
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -1888,7 +1958,9 @@
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -1936,8 +2008,101 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
+    <row r="57" ht="28" customHeight="1" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" ht="27" customHeight="1" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="18">
+        <v>42315</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" ht="33" customHeight="1" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" ht="38" customHeight="1" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" ht="22" customHeight="1" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" ht="24" customHeight="1" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" ht="18" customHeight="1" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -1987,6 +2152,14 @@
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B54:F54"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2105,7 +2278,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2195,7 +2368,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -111,32 +111,28 @@
     <t>任务内容</t>
   </si>
   <si>
-    <t>1、与安卓组进行交流，明确的需求，编写需求文档；</t>
-  </si>
-  <si>
-    <t>1、需求文档编写完成后，需要交由安卓组审核，审核通过后才能进行提交；</t>
+    <t>组内讨论，确认本周任务计划</t>
+  </si>
+  <si>
+    <t>综合考虑上一阶段的任务完成效果和现有任务需求，制定本周的总体任务计划及个人任务计划</t>
   </si>
   <si>
     <t>完成情况</t>
   </si>
   <si>
-    <t>1、现阶段的需求已明确，已完成的接口已能满足需求；
-2、需求文档没有按时完成编写</t>
+    <t>小组计划已提交，个人计划尽快补充</t>
   </si>
   <si>
     <t>存在问题</t>
   </si>
   <si>
-    <t>文档没有完成的原因：
-1、上课时间调整，工作时间被占用；
-2、现阶段需求没有更改，安卓组计划要改变项目，需求不确定；</t>
+    <t>模块间联系不大，统一安排交困难</t>
   </si>
   <si>
     <t>解决方法</t>
   </si>
   <si>
-    <t>1、完善现有代码；
-2、等待安卓组确定下阶段需求</t>
+    <t>放开自由度，自己处理自己的任务部分</t>
   </si>
   <si>
     <t>队长评价</t>
@@ -145,31 +141,13 @@
     <t>子任务发布表2</t>
   </si>
   <si>
-    <t>组内讨论，确认本周任务计划</t>
-  </si>
-  <si>
-    <t>综合考虑上一阶段的任务完成效果和现有任务需求，制定本周的总体任务计划及个人任务计划</t>
-  </si>
-  <si>
-    <t>小组计划已提交，个人计划尽快补充</t>
-  </si>
-  <si>
-    <t>模块间联系不大，统一安排交困难</t>
-  </si>
-  <si>
-    <t>放开自由度，自己处理自己的任务部分</t>
+    <t>学习在Maven项目下整合string和hibernate</t>
+  </si>
+  <si>
+    <t>在不影响项目整体结构的前提下，整合string和hibernate</t>
   </si>
   <si>
     <t>子任务发布表3</t>
-  </si>
-  <si>
-    <t>学习在Maven项目下整合string和hibernate</t>
-  </si>
-  <si>
-    <t>在不影响项目整体结构的前提下，整合string和hibernate</t>
-  </si>
-  <si>
-    <t>子任务发布表4</t>
   </si>
   <si>
     <t>iTree团队例会，讨论团队发展及知识共享</t>
@@ -180,13 +158,16 @@
 3、提前准备好自己的意见和问题</t>
   </si>
   <si>
+    <t>子任务发布表4</t>
+  </si>
+  <si>
+    <t>第二届成员例会</t>
+  </si>
+  <si>
+    <t>等待下发</t>
+  </si>
+  <si>
     <t>子任务发布表5</t>
-  </si>
-  <si>
-    <t>第二届成员例会</t>
-  </si>
-  <si>
-    <t>等待下发</t>
   </si>
   <si>
     <t>学习中文分词技术</t>
@@ -237,13 +218,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,28 +261,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -304,7 +322,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,80 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -402,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,6 +681,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -717,24 +716,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,32 +729,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -789,11 +749,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,8 +1370,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A64" sqref="$A64:$XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1526,49 +1507,45 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="18">
-        <v>42303</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="18">
+        <v>42310</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" ht="24.95" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1577,10 +1554,10 @@
     </row>
     <row r="14" ht="43" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1589,10 +1566,10 @@
     </row>
     <row r="15" ht="59" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1601,10 +1578,10 @@
     </row>
     <row r="16" ht="48" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1613,68 +1590,61 @@
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="24.95" customHeight="1"/>
+    <row r="20" ht="24.95" customHeight="1" spans="1:6">
+      <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="18">
-        <v>42310</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" ht="24.95" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="18">
+        <v>42311</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" ht="42" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1683,10 +1653,10 @@
     </row>
     <row r="23" ht="31" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1695,11 +1665,9 @@
     </row>
     <row r="24" ht="24.95" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1707,11 +1675,9 @@
     </row>
     <row r="25" ht="24.95" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1719,72 +1685,72 @@
     </row>
     <row r="26" ht="24.95" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" ht="42" customHeight="1"/>
-    <row r="28" ht="35" customHeight="1" spans="1:6">
-      <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" ht="35" customHeight="1"/>
     <row r="29" ht="33" customHeight="1" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="18">
-        <v>42311</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="32" customHeight="1" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="18">
+        <v>42311</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" ht="51" customHeight="1" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" ht="36" customHeight="1" spans="1:6">
+    <row r="32" ht="53" customHeight="1" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -1792,17 +1758,17 @@
     </row>
     <row r="33" ht="32" customHeight="1" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" ht="32" customHeight="1" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1812,90 +1778,81 @@
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" ht="47" customHeight="1"/>
-    <row r="37" ht="32" customHeight="1" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" ht="28" customHeight="1" spans="1:6">
-      <c r="A38" s="2" t="s">
+    <row r="36" ht="47" customHeight="1" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" ht="32" customHeight="1"/>
+    <row r="38" ht="28" customHeight="1"/>
+    <row r="39" ht="45" customHeight="1" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" ht="34" customHeight="1" spans="1:6">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="18">
-        <v>42311</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B40" s="18">
+        <v>42312</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" ht="45" customHeight="1" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" ht="61" customHeight="1" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" ht="42" customHeight="1" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" ht="38" customHeight="1" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1905,90 +1862,91 @@
     </row>
     <row r="44" ht="32" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="46" ht="27" customHeight="1"/>
-    <row r="47" ht="27" customHeight="1" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="18">
-        <v>42312</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
+    <row r="45" ht="28" customHeight="1" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" ht="27" customHeight="1" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" ht="27" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="40" customHeight="1" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" ht="47" customHeight="1" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="18">
+        <v>42315</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" ht="37" customHeight="1" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" ht="32" customHeight="1" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" ht="35" customHeight="1" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1998,111 +1956,47 @@
     </row>
     <row r="54" ht="36" customHeight="1" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="57" ht="28" customHeight="1" spans="1:6">
-      <c r="A57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" ht="27" customHeight="1" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="18">
-        <v>42315</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" ht="33" customHeight="1" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" ht="38" customHeight="1" spans="1:6">
-      <c r="A60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" ht="22" customHeight="1" spans="1:6">
-      <c r="A61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" ht="24" customHeight="1" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" ht="20" customHeight="1" spans="1:6">
-      <c r="A63" s="2" t="s">
+    <row r="55" ht="24" customHeight="1" spans="1:6">
+      <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" ht="18" customHeight="1" spans="1:6">
-      <c r="A64" s="2" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" ht="33" customHeight="1" spans="1:6">
+      <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" ht="28" customHeight="1"/>
+    <row r="58" ht="27" customHeight="1"/>
+    <row r="59" ht="33" customHeight="1"/>
+    <row r="60" ht="38" customHeight="1"/>
+    <row r="61" ht="22" customHeight="1"/>
+    <row r="62" ht="24" customHeight="1"/>
+    <row r="63" ht="20" customHeight="1"/>
+    <row r="64" ht="18" customHeight="1"/>
     <row r="65" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="49">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -2112,54 +2006,46 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="D40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="D50:F50"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B54:F54"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2278,7 +2164,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2368,7 +2254,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -158,6 +158,15 @@
 3、提前准备好自己的意见和问题</t>
   </si>
   <si>
+    <t>反馈了自己发现的问题，提出了对团队今后发展的意见和建议</t>
+  </si>
+  <si>
+    <t>知识分享没有完成，主要是时间有限，没有继续进行</t>
+  </si>
+  <si>
+    <t>下次例会知识分享环节优先级提高</t>
+  </si>
+  <si>
     <t>子任务发布表4</t>
   </si>
   <si>
@@ -185,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -218,6 +227,116 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -226,84 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -312,9 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,44 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -373,6 +375,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,16 +694,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,22 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,21 +756,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -778,153 +769,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1760,31 +1769,37 @@
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" ht="32" customHeight="1" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="B35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" ht="47" customHeight="1" spans="1:6">
       <c r="A36" s="2" t="s">
@@ -1802,7 +1817,7 @@
     <row r="38" ht="28" customHeight="1"/>
     <row r="39" ht="45" customHeight="1" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1831,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -1843,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -1896,7 +1911,7 @@
     <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="40" customHeight="1" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1925,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1937,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2254,7 +2269,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -173,7 +173,13 @@
     <t>第二届成员例会</t>
   </si>
   <si>
-    <t>等待下发</t>
+    <t>参加了会议，根据自己的视角记录发现的问题</t>
+  </si>
+  <si>
+    <t>讲解时没有没有围绕中心点；态度问题有待解决；发言不太积极</t>
+  </si>
+  <si>
+    <t>看后期的发展</t>
   </si>
   <si>
     <t>子任务发布表5</t>
@@ -194,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -242,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,9 +269,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -276,6 +284,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -292,10 +322,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,82 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,25 +404,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,151 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +699,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -725,17 +740,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,20 +779,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,145 +798,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1858,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -1869,31 +1875,37 @@
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" ht="32" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" ht="28" customHeight="1" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:6">
       <c r="A46" s="2" t="s">
@@ -1911,7 +1923,7 @@
     <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="40" customHeight="1" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1940,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1952,7 +1964,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2179,7 +2191,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2269,7 +2281,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
+++ b/Service/任务记录文档/2015年11月02日至11月08日/服务组-梁艳飞-20151101.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -147,6 +147,15 @@
     <t>在不影响项目整体结构的前提下，整合string和hibernate</t>
   </si>
   <si>
+    <t>未完成，有欠缺</t>
+  </si>
+  <si>
+    <t>该模块的开发与计划发生偏离</t>
+  </si>
+  <si>
+    <t>重新整理思路，调整代码结构</t>
+  </si>
+  <si>
     <t>子任务发布表3</t>
   </si>
   <si>
@@ -190,6 +199,15 @@
   <si>
     <t>1、在时间允许的情况下执行该任务；
 2、查找适合的开源项目，最好编写model</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>没有预留出足够的时间完成该任务</t>
+  </si>
+  <si>
+    <t>顺延至下周任务计划之中</t>
   </si>
   <si>
     <t>子任务发布表</t>
@@ -200,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -247,8 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,30 +288,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,13 +340,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,31 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +377,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,37 +416,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,145 +542,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,11 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,11 +740,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,24 +764,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,168 +811,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1682,7 +1700,9 @@
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1692,7 +1712,9 @@
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1702,11 +1724,13 @@
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
@@ -1723,7 +1747,7 @@
     <row r="28" ht="35" customHeight="1"/>
     <row r="29" ht="33" customHeight="1" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1752,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1764,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1776,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1788,7 +1812,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1800,7 +1824,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -1823,7 +1847,7 @@
     <row r="38" ht="28" customHeight="1"/>
     <row r="39" ht="45" customHeight="1" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1852,7 +1876,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -1876,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -1888,7 +1912,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -1900,7 +1924,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -1923,7 +1947,7 @@
     <row r="48" ht="24" customHeight="1"/>
     <row r="49" ht="40" customHeight="1" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1952,7 +1976,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1964,7 +1988,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -1975,31 +1999,37 @@
       <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="B53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="B54" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" ht="24" customHeight="1" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="B55" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" ht="33" customHeight="1" spans="1:6">
       <c r="A56" s="2" t="s">
@@ -2191,7 +2221,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2281,7 +2311,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
